--- a/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45120</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45120</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45120</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45120</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45120</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45120</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45120</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45120</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45120</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45120</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45120</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45120</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45120</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
+++ b/Logging_NORRBOTTENS_LAN/Logging_BODEN/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45120</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
